--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-17.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-17.xlsx
@@ -92,7 +92,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] [Kashchey... Your plot must be stopped. Right here.] 
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【Kashchey... Your plot must be stopped. Right here.】
 </t>
   </si>
   <si>
@@ -112,15 +112,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_chen2")] [Clear Eyes]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] [It’s not this sword that will shatter your plans, Kashchey.] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] [It’s the person holding the sword.] 
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_chen2")] 【Clear Eyes】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It’s not this sword that will shatter your plans, Kashchey.】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It’s the person holding the sword.】
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-17.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_08-17.xlsx
@@ -116,11 +116,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It’s not this sword that will shatter your plans, Kashchey.】
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It’s the person holding the sword.】
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It's not this sword that will shatter your plans, Kashchey.】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya2")] 【It's the person holding the sword.】
 </t>
   </si>
   <si>
